--- a/data/IRREGULARVERBS(V1V2V3).xlsx
+++ b/data/IRREGULARVERBS(V1V2V3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DBFBCBC-BB9B-4CB9-9285-C4B4F12102E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A8006-9224-4CC8-AF9E-5AB0B382CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C86CF20-0EAC-4683-BC39-38793460FCD1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>be - was/were - been</t>
   </si>
@@ -123,9 +123,6 @@
     <t>tìm thấy</t>
   </si>
   <si>
-    <t>forget - forgot - forgot/forgotten</t>
-  </si>
-  <si>
     <t>quên</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>run - ran - run</t>
   </si>
   <si>
-    <t>chạy, điều hành</t>
-  </si>
-  <si>
     <t>say - said - said</t>
   </si>
   <si>
@@ -216,10 +210,760 @@
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa / Giải thích (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at home yesterday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>became</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a doctor in 2020.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The movie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>began</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ten minutes ago.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this vase?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a new shirt yesterday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the red car.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My parents </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>came</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to visit last week.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>did</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my homework last night.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I accidentally </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my finger.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This watch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> me $100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>drank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> three glasses of water.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pizza for dinner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The leaves </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the tree.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>felt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sick yesterday morning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The soldiers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bravely.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my keys under the sofa.</t>
+    </r>
+  </si>
+  <si>
+    <t>forget - forgot - forgotten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>forgot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to call my mom.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>got</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a present for my birthday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>drove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the beach on Sunday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> his bike to school.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> me some good advice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a great time at the party.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> her promise.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>knew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the answer to that question.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tell me where it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hurts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The train </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> five minutes ago.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my wallet on the bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My mom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>made</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a cake for me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> him for the first time yesterday.</t>
+    </r>
+  </si>
+  <si>
+    <t>chạy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ran</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> very fast to catch the bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>said</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> she was tired.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -235,17 +979,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,17 +1009,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,13 +1027,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,306 +1351,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D4714-F88D-4198-B187-8BAF2A466DAC}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
